--- a/Code/Results/Cases/Case_2_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.22185082286013</v>
+        <v>16.92146497504947</v>
       </c>
       <c r="C2">
-        <v>13.72347835681647</v>
+        <v>9.771865390017005</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.341332873641152</v>
+        <v>14.46341312524095</v>
       </c>
       <c r="F2">
-        <v>28.18539511838723</v>
+        <v>39.81084986156147</v>
       </c>
       <c r="G2">
-        <v>32.80933060786205</v>
+        <v>40.19851507583203</v>
       </c>
       <c r="H2">
-        <v>10.92529984782539</v>
+        <v>17.06117069584081</v>
       </c>
       <c r="I2">
-        <v>16.9476128549678</v>
+        <v>26.68969260311969</v>
       </c>
       <c r="J2">
-        <v>5.458682213148495</v>
+        <v>8.358230682090989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.650300287484862</v>
+        <v>12.42906579138839</v>
       </c>
       <c r="M2">
-        <v>13.27710239381322</v>
+        <v>17.09441340903945</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.77088090021732</v>
+        <v>16.45607380828435</v>
       </c>
       <c r="C3">
-        <v>12.96407939790109</v>
+        <v>9.426491263954286</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.363519784644028</v>
+        <v>14.48117275068085</v>
       </c>
       <c r="F3">
-        <v>27.69124661670006</v>
+        <v>39.87480729873754</v>
       </c>
       <c r="G3">
-        <v>31.95582269208128</v>
+        <v>40.23378982543115</v>
       </c>
       <c r="H3">
-        <v>10.92064754985234</v>
+        <v>17.12149757096481</v>
       </c>
       <c r="I3">
-        <v>17.1073680678241</v>
+        <v>26.81967784372227</v>
       </c>
       <c r="J3">
-        <v>5.496438286354156</v>
+        <v>8.369292699519313</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.505439168789022</v>
+        <v>12.42644612849389</v>
       </c>
       <c r="M3">
-        <v>12.65592950390285</v>
+        <v>16.99401315226216</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.82866108223143</v>
+        <v>16.16612181287106</v>
       </c>
       <c r="C4">
-        <v>12.47633269642741</v>
+        <v>9.206000172148705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.378677998623244</v>
+        <v>14.49283049462138</v>
       </c>
       <c r="F4">
-        <v>27.41208063904386</v>
+        <v>39.92440456428495</v>
       </c>
       <c r="G4">
-        <v>31.4707807663383</v>
+        <v>40.27103829153459</v>
       </c>
       <c r="H4">
-        <v>10.92889855638613</v>
+        <v>17.16234439012146</v>
       </c>
       <c r="I4">
-        <v>17.22448835500132</v>
+        <v>26.90585607835353</v>
       </c>
       <c r="J4">
-        <v>5.520278703568356</v>
+        <v>8.376500638187355</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.417742257497539</v>
+        <v>12.42618740715412</v>
       </c>
       <c r="M4">
-        <v>12.26355280005289</v>
+        <v>16.93442781384993</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.43169048306274</v>
+        <v>16.04708585061116</v>
       </c>
       <c r="C5">
-        <v>12.27222726143752</v>
+        <v>9.114106827968559</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.385233634962006</v>
+        <v>14.49777097651256</v>
       </c>
       <c r="F5">
-        <v>27.30435604115467</v>
+        <v>39.94720563271296</v>
       </c>
       <c r="G5">
-        <v>31.28289016947717</v>
+        <v>40.29011865735435</v>
       </c>
       <c r="H5">
-        <v>10.93492441839864</v>
+        <v>17.17994416678281</v>
       </c>
       <c r="I5">
-        <v>17.27673033534504</v>
+        <v>26.94257116650946</v>
       </c>
       <c r="J5">
-        <v>5.530165100389724</v>
+        <v>8.379542872252413</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.382350441486217</v>
+        <v>12.42642269068722</v>
       </c>
       <c r="M5">
-        <v>12.10108608934561</v>
+        <v>16.91068248447848</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36498515411268</v>
+        <v>16.02727238185542</v>
       </c>
       <c r="C6">
-        <v>12.23801496677844</v>
+        <v>9.098727178539145</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.386344848921516</v>
+        <v>14.49860281970031</v>
       </c>
       <c r="F6">
-        <v>27.28683103162805</v>
+        <v>39.9511479234304</v>
       </c>
       <c r="G6">
-        <v>31.25227890653526</v>
+        <v>40.29352195488482</v>
       </c>
       <c r="H6">
-        <v>10.9360821099134</v>
+        <v>17.1829241590801</v>
       </c>
       <c r="I6">
-        <v>17.28567011335262</v>
+        <v>26.94876399664423</v>
       </c>
       <c r="J6">
-        <v>5.531817234769671</v>
+        <v>8.380054382262674</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.376495442755332</v>
+        <v>12.42648237411183</v>
       </c>
       <c r="M6">
-        <v>12.0739595492286</v>
+        <v>16.90677248523897</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.82336020428449</v>
+        <v>16.16451976525532</v>
       </c>
       <c r="C7">
-        <v>12.47360161014431</v>
+        <v>9.204769021851749</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.378764886981651</v>
+        <v>14.49289635436112</v>
       </c>
       <c r="F7">
-        <v>27.41060347197729</v>
+        <v>39.92470159167463</v>
       </c>
       <c r="G7">
-        <v>31.46820734718239</v>
+        <v>40.2712798471024</v>
       </c>
       <c r="H7">
-        <v>10.92896920923486</v>
+        <v>17.16257788625941</v>
       </c>
       <c r="I7">
-        <v>17.22517497631307</v>
+        <v>26.90634477126809</v>
       </c>
       <c r="J7">
-        <v>5.52041133421703</v>
+        <v>8.376541241425276</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.417263510827294</v>
+        <v>12.42618919906535</v>
       </c>
       <c r="M7">
-        <v>12.26137184957263</v>
+        <v>16.9341053818833</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.73214402136724</v>
+        <v>16.76197329630478</v>
       </c>
       <c r="C8">
-        <v>13.46611997803488</v>
+        <v>9.654574272963126</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.348659499186077</v>
+        <v>14.46938057033297</v>
       </c>
       <c r="F8">
-        <v>28.00995161901095</v>
+        <v>39.8307550279667</v>
       </c>
       <c r="G8">
-        <v>32.50693037732234</v>
+        <v>40.20743182933159</v>
       </c>
       <c r="H8">
-        <v>10.92131214487625</v>
+        <v>17.08117991554309</v>
       </c>
       <c r="I8">
-        <v>16.99857929281426</v>
+        <v>26.73318754748136</v>
       </c>
       <c r="J8">
-        <v>5.471567489588454</v>
+        <v>8.361958791471061</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.600111792783387</v>
+        <v>12.42788319478414</v>
       </c>
       <c r="M8">
-        <v>13.0653037018064</v>
+        <v>17.05937866857691</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.07291927909791</v>
+        <v>17.89298438362104</v>
       </c>
       <c r="C9">
-        <v>15.24082192367335</v>
+        <v>10.46675680615104</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.302184619924278</v>
+        <v>14.42922323385452</v>
       </c>
       <c r="F9">
-        <v>29.37942145931057</v>
+        <v>39.72874242211491</v>
       </c>
       <c r="G9">
-        <v>34.8535844672741</v>
+        <v>40.20661143835579</v>
       </c>
       <c r="H9">
-        <v>11.00025925136587</v>
+        <v>16.95187325894655</v>
       </c>
       <c r="I9">
-        <v>16.71811670784787</v>
+        <v>26.44433373877166</v>
       </c>
       <c r="J9">
-        <v>5.380730428739483</v>
+        <v>8.336644955313286</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.967242977018148</v>
+        <v>12.44185537689861</v>
       </c>
       <c r="M9">
-        <v>14.54797469227257</v>
+        <v>17.32057136093391</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.28909187783029</v>
+        <v>18.69026948734716</v>
       </c>
       <c r="C10">
-        <v>16.43985903989818</v>
+        <v>11.01742699398651</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.276293299742042</v>
+        <v>14.40332420837453</v>
       </c>
       <c r="F10">
-        <v>30.50560991372912</v>
+        <v>39.70423011656637</v>
       </c>
       <c r="G10">
-        <v>36.76535907685101</v>
+        <v>40.28255016698438</v>
       </c>
       <c r="H10">
-        <v>11.12354530592722</v>
+        <v>16.87550875202876</v>
       </c>
       <c r="I10">
-        <v>16.63077875095459</v>
+        <v>26.26328605602332</v>
       </c>
       <c r="J10">
-        <v>5.316598554457507</v>
+        <v>8.320024561754629</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.24051041128139</v>
+        <v>12.45853042349428</v>
       </c>
       <c r="M10">
-        <v>15.57305251809299</v>
+        <v>17.52080188116627</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.24714882506332</v>
+        <v>19.04401517821062</v>
       </c>
       <c r="C11">
-        <v>16.9628847735575</v>
+        <v>11.25736434825678</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.266461562457378</v>
+        <v>14.3923190937536</v>
       </c>
       <c r="F11">
-        <v>31.04423850169919</v>
+        <v>39.70407521754321</v>
       </c>
       <c r="G11">
-        <v>37.67548491240071</v>
+        <v>40.33379365193656</v>
       </c>
       <c r="H11">
-        <v>11.19552365228881</v>
+        <v>16.84484772808415</v>
       </c>
       <c r="I11">
-        <v>16.62118210129729</v>
+        <v>26.18774877202049</v>
       </c>
       <c r="J11">
-        <v>5.287891533894637</v>
+        <v>8.31288804398349</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.365277749502095</v>
+        <v>12.46748866683185</v>
       </c>
       <c r="M11">
-        <v>16.0244683181567</v>
+        <v>17.61344873368512</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60287576867878</v>
+        <v>19.1765619930124</v>
       </c>
       <c r="C12">
-        <v>17.15776204107499</v>
+        <v>11.34666308129232</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.263033414478258</v>
+        <v>14.38826296421196</v>
       </c>
       <c r="F12">
-        <v>31.25200502793798</v>
+        <v>39.70559935963966</v>
       </c>
       <c r="G12">
-        <v>38.02592736900777</v>
+        <v>40.35559964608673</v>
       </c>
       <c r="H12">
-        <v>11.22520644921141</v>
+        <v>16.83382610634395</v>
       </c>
       <c r="I12">
-        <v>16.62225974867711</v>
+        <v>26.16013069138521</v>
       </c>
       <c r="J12">
-        <v>5.277079326441164</v>
+        <v>8.31024624798075</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.412566347667989</v>
+        <v>12.47107646909113</v>
       </c>
       <c r="M12">
-        <v>16.19321396947529</v>
+        <v>17.64873424697341</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52657574894949</v>
+        <v>19.14808016593451</v>
       </c>
       <c r="C13">
-        <v>17.11593237807277</v>
+        <v>11.32750099126505</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.263758350489473</v>
+        <v>14.38913158173051</v>
       </c>
       <c r="F13">
-        <v>31.2070894807217</v>
+        <v>39.70520070047947</v>
       </c>
       <c r="G13">
-        <v>37.95019545565356</v>
+        <v>40.35079658271358</v>
       </c>
       <c r="H13">
-        <v>11.21870358469765</v>
+        <v>16.83617356998105</v>
       </c>
       <c r="I13">
-        <v>16.62181194220826</v>
+        <v>26.1660347918598</v>
       </c>
       <c r="J13">
-        <v>5.279405470834117</v>
+        <v>8.310812514169351</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.402380382316153</v>
+        <v>12.47029510727861</v>
       </c>
       <c r="M13">
-        <v>16.15696986624258</v>
+        <v>17.64112624714231</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.27655555767618</v>
+        <v>19.05494878622434</v>
       </c>
       <c r="C14">
-        <v>16.97898090112895</v>
+        <v>11.26474249519721</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.266173522973109</v>
+        <v>14.39198316575735</v>
       </c>
       <c r="F14">
-        <v>31.06125531724028</v>
+        <v>39.70416888316148</v>
       </c>
       <c r="G14">
-        <v>37.7041998381772</v>
+        <v>40.33553953452063</v>
       </c>
       <c r="H14">
-        <v>11.19791624469108</v>
+        <v>16.84392915222069</v>
       </c>
       <c r="I14">
-        <v>16.62117411726949</v>
+        <v>26.18545681993276</v>
       </c>
       <c r="J14">
-        <v>5.287000886122076</v>
+        <v>8.312669488335585</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.369167495757026</v>
+        <v>12.46777993028094</v>
       </c>
       <c r="M14">
-        <v>16.03839536433198</v>
+        <v>17.61634777120288</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.12249458122363</v>
+        <v>18.99771618134863</v>
       </c>
       <c r="C15">
-        <v>16.89468140680735</v>
+        <v>11.22609678128909</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.267691772229577</v>
+        <v>14.39374432230241</v>
       </c>
       <c r="F15">
-        <v>30.97242306580823</v>
+        <v>39.70374301907112</v>
       </c>
       <c r="G15">
-        <v>37.55427535418143</v>
+        <v>40.32650679201018</v>
       </c>
       <c r="H15">
-        <v>11.18550352857514</v>
+        <v>16.84875645947508</v>
       </c>
       <c r="I15">
-        <v>16.62140848509333</v>
+        <v>26.1974819674489</v>
       </c>
       <c r="J15">
-        <v>5.29166065060468</v>
+        <v>8.313814826563716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.348828450762014</v>
+        <v>12.46626471548086</v>
       </c>
       <c r="M15">
-        <v>15.96547786980759</v>
+        <v>17.60119589993723</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.22548397442997</v>
+        <v>18.66696063599345</v>
       </c>
       <c r="C16">
-        <v>16.40523022955705</v>
+        <v>11.00153028113372</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.276976234197495</v>
+        <v>14.40405900997639</v>
       </c>
       <c r="F16">
-        <v>30.47094000304989</v>
+        <v>39.70446166994677</v>
       </c>
       <c r="G16">
-        <v>36.70669192349409</v>
+        <v>40.27953738763196</v>
       </c>
       <c r="H16">
-        <v>11.1191732051055</v>
+        <v>16.87759480532443</v>
       </c>
       <c r="I16">
-        <v>16.63204433928912</v>
+        <v>26.26836032110252</v>
       </c>
       <c r="J16">
-        <v>5.318483299302473</v>
+        <v>8.320499455726967</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.232363660791824</v>
+        <v>12.45797244456793</v>
       </c>
       <c r="M16">
-        <v>15.54324662106356</v>
+        <v>17.51477670205148</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.66246088529731</v>
+        <v>18.46167104029</v>
       </c>
       <c r="C17">
-        <v>16.09925085780031</v>
+        <v>10.86102891544264</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.283180563150969</v>
+        <v>14.41058533446471</v>
       </c>
       <c r="F17">
-        <v>30.17004613854527</v>
+        <v>39.70772037722293</v>
       </c>
       <c r="G17">
-        <v>36.1970655106567</v>
+        <v>40.25500128204214</v>
       </c>
       <c r="H17">
-        <v>11.08265270593695</v>
+        <v>16.89633250295796</v>
       </c>
       <c r="I17">
-        <v>16.64655217343712</v>
+        <v>26.31359293101393</v>
       </c>
       <c r="J17">
-        <v>5.335051784202506</v>
+        <v>8.324708653311855</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.161015382441313</v>
+        <v>12.45323567444467</v>
       </c>
       <c r="M17">
-        <v>15.28036125323664</v>
+        <v>17.46214535035846</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.33390159847583</v>
+        <v>18.3427587094744</v>
       </c>
       <c r="C18">
-        <v>15.92114560164455</v>
+        <v>10.77922385813842</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.286931321867563</v>
+        <v>14.41441221285535</v>
       </c>
       <c r="F18">
-        <v>29.99945621172466</v>
+        <v>39.71062966393249</v>
       </c>
       <c r="G18">
-        <v>35.90774918083337</v>
+        <v>40.24246075816544</v>
       </c>
       <c r="H18">
-        <v>11.0631347884256</v>
+        <v>16.90749357549893</v>
       </c>
       <c r="I18">
-        <v>16.6577095141458</v>
+        <v>26.34025135567385</v>
       </c>
       <c r="J18">
-        <v>5.344626038753004</v>
+        <v>8.327169619053043</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.120021960361733</v>
+        <v>12.45064053138</v>
       </c>
       <c r="M18">
-        <v>15.12775618152779</v>
+        <v>17.43202147169692</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.22184186110062</v>
+        <v>18.30235753091949</v>
       </c>
       <c r="C19">
-        <v>15.86047806740914</v>
+        <v>10.75135697410588</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.288232128789481</v>
+        <v>14.41572049659363</v>
       </c>
       <c r="F19">
-        <v>29.94212234713935</v>
+        <v>39.71179238562909</v>
       </c>
       <c r="G19">
-        <v>35.81044655915572</v>
+        <v>40.23848468206775</v>
       </c>
       <c r="H19">
-        <v>11.05677759244181</v>
+        <v>16.91133833083848</v>
       </c>
       <c r="I19">
-        <v>16.66195898587945</v>
+        <v>26.34938751569638</v>
       </c>
       <c r="J19">
-        <v>5.347875611554811</v>
+        <v>8.328009731336881</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.106150660131799</v>
+        <v>12.44978412738046</v>
       </c>
       <c r="M19">
-        <v>15.07584818034783</v>
+        <v>17.42184818668093</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.72288354688221</v>
+        <v>18.48361183421866</v>
       </c>
       <c r="C20">
-        <v>16.13204141143444</v>
+        <v>10.87608854980938</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.282501142664323</v>
+        <v>14.40988303240106</v>
       </c>
       <c r="F20">
-        <v>30.20182043493651</v>
+        <v>39.70726635173902</v>
       </c>
       <c r="G20">
-        <v>36.25092229660125</v>
+        <v>40.25745048470546</v>
       </c>
       <c r="H20">
-        <v>11.08638538597907</v>
+        <v>16.89429811748336</v>
       </c>
       <c r="I20">
-        <v>16.64471397357563</v>
+        <v>26.30871137835364</v>
       </c>
       <c r="J20">
-        <v>5.333283495385529</v>
+        <v>8.32425644524362</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.168606133605676</v>
+        <v>12.45372654070414</v>
       </c>
       <c r="M20">
-        <v>15.30849123389481</v>
+        <v>17.46773286157456</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35018327175253</v>
+        <v>19.08234289261689</v>
       </c>
       <c r="C21">
-        <v>17.01929279098158</v>
+        <v>11.28321883288567</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.265455994738414</v>
+        <v>14.3911425696853</v>
       </c>
       <c r="F21">
-        <v>31.10398707019409</v>
+        <v>39.70442898951057</v>
       </c>
       <c r="G21">
-        <v>37.77629737756435</v>
+        <v>40.3399557509699</v>
       </c>
       <c r="H21">
-        <v>11.20395502460466</v>
+        <v>16.84163514223206</v>
       </c>
       <c r="I21">
-        <v>16.62123050819552</v>
+        <v>26.17972529112534</v>
       </c>
       <c r="J21">
-        <v>5.284768412496405</v>
+        <v>8.312122406786752</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.37892196176284</v>
+        <v>12.4685134081077</v>
       </c>
       <c r="M21">
-        <v>16.0732834869037</v>
+        <v>17.62362050271747</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.37258580679795</v>
+        <v>19.46538652464196</v>
       </c>
       <c r="C22">
-        <v>17.58065060833671</v>
+        <v>11.54019202786032</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.256043451432959</v>
+        <v>14.37954297489324</v>
       </c>
       <c r="F22">
-        <v>31.71576562357287</v>
+        <v>39.71180024502081</v>
       </c>
       <c r="G22">
-        <v>38.80702538615981</v>
+        <v>40.40787099474373</v>
       </c>
       <c r="H22">
-        <v>11.29500049444564</v>
+        <v>16.81065142278234</v>
       </c>
       <c r="I22">
-        <v>16.6335303458765</v>
+        <v>26.10117649583067</v>
       </c>
       <c r="J22">
-        <v>5.253397578293208</v>
+        <v>8.304545457508732</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.51661111497695</v>
+        <v>12.47931612276073</v>
       </c>
       <c r="M22">
-        <v>16.60683340588514</v>
+        <v>17.72666992150659</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.83062733014275</v>
+        <v>19.26174254047719</v>
       </c>
       <c r="C23">
-        <v>17.28271921160045</v>
+        <v>11.40388628223585</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.26090354886307</v>
+        <v>14.3856746972595</v>
       </c>
       <c r="F23">
-        <v>31.38721300507383</v>
+        <v>39.70702170945421</v>
       </c>
       <c r="G23">
-        <v>38.2538112209603</v>
+        <v>40.37034397323099</v>
       </c>
       <c r="H23">
-        <v>11.24506139610889</v>
+        <v>16.82687288541585</v>
       </c>
       <c r="I23">
-        <v>16.62430765172719</v>
+        <v>26.14257150660696</v>
       </c>
       <c r="J23">
-        <v>5.270113018231678</v>
+        <v>8.308557200889057</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.443109279456529</v>
+        <v>12.4734469705811</v>
       </c>
       <c r="M23">
-        <v>16.30155947194287</v>
+        <v>17.67157108387501</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.6955816400442</v>
+        <v>18.4736951596199</v>
       </c>
       <c r="C24">
-        <v>16.11722363791342</v>
+        <v>10.8692832910158</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.282807737257675</v>
+        <v>14.41020031014179</v>
       </c>
       <c r="F24">
-        <v>30.18744780738448</v>
+        <v>39.70746839022598</v>
       </c>
       <c r="G24">
-        <v>36.22656219592309</v>
+        <v>40.25633832332399</v>
       </c>
       <c r="H24">
-        <v>11.08469324769377</v>
+        <v>16.89521665307317</v>
       </c>
       <c r="I24">
-        <v>16.6455362791957</v>
+        <v>26.3109162926942</v>
       </c>
       <c r="J24">
-        <v>5.334082786078985</v>
+        <v>8.324460760619761</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.165174273257112</v>
+        <v>12.45350422094981</v>
       </c>
       <c r="M24">
-        <v>15.2957782402458</v>
+        <v>17.46520632681904</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.21152092827275</v>
+        <v>17.59232895002962</v>
       </c>
       <c r="C25">
-        <v>14.77918141844332</v>
+        <v>10.25490576988951</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.313355295367614</v>
+        <v>14.43945192261792</v>
       </c>
       <c r="F25">
-        <v>28.98794684457536</v>
+        <v>39.74750079330915</v>
       </c>
       <c r="G25">
-        <v>34.18565455727951</v>
+        <v>40.19342934519574</v>
       </c>
       <c r="H25">
-        <v>10.9680172489277</v>
+        <v>16.98359233530668</v>
       </c>
       <c r="I25">
-        <v>16.77456308912847</v>
+        <v>26.51702106738538</v>
       </c>
       <c r="J25">
-        <v>5.404815409787754</v>
+        <v>8.34314404886628</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.867187612431306</v>
+        <v>12.4369435396042</v>
       </c>
       <c r="M25">
-        <v>14.15774639652144</v>
+        <v>17.24836412977502</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.92146497504947</v>
+        <v>21.22185082286011</v>
       </c>
       <c r="C2">
-        <v>9.771865390017005</v>
+        <v>13.72347835681646</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.46341312524095</v>
+        <v>8.341332873641214</v>
       </c>
       <c r="F2">
-        <v>39.81084986156147</v>
+        <v>28.18539511838735</v>
       </c>
       <c r="G2">
-        <v>40.19851507583203</v>
+        <v>32.80933060786217</v>
       </c>
       <c r="H2">
-        <v>17.06117069584081</v>
+        <v>10.92529984782541</v>
       </c>
       <c r="I2">
-        <v>26.68969260311969</v>
+        <v>16.9476128549679</v>
       </c>
       <c r="J2">
-        <v>8.358230682090989</v>
+        <v>5.45868221314849</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.42906579138839</v>
+        <v>7.650300287484827</v>
       </c>
       <c r="M2">
-        <v>17.09441340903945</v>
+        <v>13.27710239381322</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.45607380828435</v>
+        <v>19.77088090021729</v>
       </c>
       <c r="C3">
-        <v>9.426491263954286</v>
+        <v>12.96407939790126</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.48117275068085</v>
+        <v>8.363519784643897</v>
       </c>
       <c r="F3">
-        <v>39.87480729873754</v>
+        <v>27.69124661670007</v>
       </c>
       <c r="G3">
-        <v>40.23378982543115</v>
+        <v>31.9558226920815</v>
       </c>
       <c r="H3">
-        <v>17.12149757096481</v>
+        <v>10.92064754985235</v>
       </c>
       <c r="I3">
-        <v>26.81967784372227</v>
+        <v>17.10736806782425</v>
       </c>
       <c r="J3">
-        <v>8.369292699519313</v>
+        <v>5.496438286354153</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.42644612849389</v>
+        <v>7.505439168788899</v>
       </c>
       <c r="M3">
-        <v>16.99401315226216</v>
+        <v>12.65592950390282</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.16612181287106</v>
+        <v>18.82866108223146</v>
       </c>
       <c r="C4">
-        <v>9.206000172148705</v>
+        <v>12.47633269642725</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.49283049462138</v>
+        <v>8.378677998623177</v>
       </c>
       <c r="F4">
-        <v>39.92440456428495</v>
+        <v>27.41208063904394</v>
       </c>
       <c r="G4">
-        <v>40.27103829153459</v>
+        <v>31.47078076633839</v>
       </c>
       <c r="H4">
-        <v>17.16234439012146</v>
+        <v>10.9288985563861</v>
       </c>
       <c r="I4">
-        <v>26.90585607835353</v>
+        <v>17.22448835500121</v>
       </c>
       <c r="J4">
-        <v>8.376500638187355</v>
+        <v>5.520278703568284</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.42618740715412</v>
+        <v>7.417742257497636</v>
       </c>
       <c r="M4">
-        <v>16.93442781384993</v>
+        <v>12.26355280005286</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.04708585061116</v>
+        <v>18.43169048306276</v>
       </c>
       <c r="C5">
-        <v>9.114106827968559</v>
+        <v>12.27222726143766</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.49777097651256</v>
+        <v>8.385233634962006</v>
       </c>
       <c r="F5">
-        <v>39.94720563271296</v>
+        <v>27.30435604115464</v>
       </c>
       <c r="G5">
-        <v>40.29011865735435</v>
+        <v>31.28289016947715</v>
       </c>
       <c r="H5">
-        <v>17.17994416678281</v>
+        <v>10.93492441839865</v>
       </c>
       <c r="I5">
-        <v>26.94257116650946</v>
+        <v>17.27673033534503</v>
       </c>
       <c r="J5">
-        <v>8.379542872252413</v>
+        <v>5.530165100389692</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.42642269068722</v>
+        <v>7.38235044148618</v>
       </c>
       <c r="M5">
-        <v>16.91068248447848</v>
+        <v>12.10108608934559</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.02727238185542</v>
+        <v>18.36498515411262</v>
       </c>
       <c r="C6">
-        <v>9.098727178539145</v>
+        <v>12.23801496677854</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.49860281970031</v>
+        <v>8.386344848921839</v>
       </c>
       <c r="F6">
-        <v>39.9511479234304</v>
+        <v>27.28683103162833</v>
       </c>
       <c r="G6">
-        <v>40.29352195488482</v>
+        <v>31.25227890653565</v>
       </c>
       <c r="H6">
-        <v>17.1829241590801</v>
+        <v>10.93608210991354</v>
       </c>
       <c r="I6">
-        <v>26.94876399664423</v>
+        <v>17.28567011335286</v>
       </c>
       <c r="J6">
-        <v>8.380054382262674</v>
+        <v>5.531817234769732</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.42648237411183</v>
+        <v>7.376495442755387</v>
       </c>
       <c r="M6">
-        <v>16.90677248523897</v>
+        <v>12.07395954922868</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.16451976525532</v>
+        <v>18.82336020428449</v>
       </c>
       <c r="C7">
-        <v>9.204769021851749</v>
+        <v>12.47360161014415</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.49289635436112</v>
+        <v>8.37876488698158</v>
       </c>
       <c r="F7">
-        <v>39.92470159167463</v>
+        <v>27.41060347197729</v>
       </c>
       <c r="G7">
-        <v>40.2712798471024</v>
+        <v>31.46820734718233</v>
       </c>
       <c r="H7">
-        <v>17.16257788625941</v>
+        <v>10.92896920923488</v>
       </c>
       <c r="I7">
-        <v>26.90634477126809</v>
+        <v>17.22517497631297</v>
       </c>
       <c r="J7">
-        <v>8.376541241425276</v>
+        <v>5.520411334216961</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.42618919906535</v>
+        <v>7.417263510827289</v>
       </c>
       <c r="M7">
-        <v>16.9341053818833</v>
+        <v>12.26137184957261</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.76197329630478</v>
+        <v>20.73214402136721</v>
       </c>
       <c r="C8">
-        <v>9.654574272963126</v>
+        <v>13.46611997803492</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.46938057033297</v>
+        <v>8.348659499186081</v>
       </c>
       <c r="F8">
-        <v>39.8307550279667</v>
+        <v>28.0099516190111</v>
       </c>
       <c r="G8">
-        <v>40.20743182933159</v>
+        <v>32.5069303773224</v>
       </c>
       <c r="H8">
-        <v>17.08117991554309</v>
+        <v>10.92131214487631</v>
       </c>
       <c r="I8">
-        <v>26.73318754748136</v>
+        <v>16.99857929281433</v>
       </c>
       <c r="J8">
-        <v>8.361958791471061</v>
+        <v>5.47156748958845</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.42788319478414</v>
+        <v>7.600111792783408</v>
       </c>
       <c r="M8">
-        <v>17.05937866857691</v>
+        <v>13.06530370180642</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.89298438362104</v>
+        <v>24.07291927909788</v>
       </c>
       <c r="C9">
-        <v>10.46675680615104</v>
+        <v>15.2408219236736</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.42922323385452</v>
+        <v>8.302184619924343</v>
       </c>
       <c r="F9">
-        <v>39.72874242211491</v>
+        <v>29.37942145931063</v>
       </c>
       <c r="G9">
-        <v>40.20661143835579</v>
+        <v>34.85358446727418</v>
       </c>
       <c r="H9">
-        <v>16.95187325894655</v>
+        <v>11.00025925136592</v>
       </c>
       <c r="I9">
-        <v>26.44433373877166</v>
+        <v>16.71811670784803</v>
       </c>
       <c r="J9">
-        <v>8.336644955313286</v>
+        <v>5.380730428739579</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.44185537689861</v>
+        <v>7.967242977018155</v>
       </c>
       <c r="M9">
-        <v>17.32057136093391</v>
+        <v>14.54797469227259</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.69026948734716</v>
+        <v>26.28909187783032</v>
       </c>
       <c r="C10">
-        <v>11.01742699398651</v>
+        <v>16.43985903989792</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.40332420837453</v>
+        <v>8.276293299742111</v>
       </c>
       <c r="F10">
-        <v>39.70423011656637</v>
+        <v>30.50560991372913</v>
       </c>
       <c r="G10">
-        <v>40.28255016698438</v>
+        <v>36.76535907685101</v>
       </c>
       <c r="H10">
-        <v>16.87550875202876</v>
+        <v>11.12354530592722</v>
       </c>
       <c r="I10">
-        <v>26.26328605602332</v>
+        <v>16.63077875095454</v>
       </c>
       <c r="J10">
-        <v>8.320024561754629</v>
+        <v>5.316598554457574</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.45853042349428</v>
+        <v>8.240510411281468</v>
       </c>
       <c r="M10">
-        <v>17.52080188116627</v>
+        <v>15.57305251809301</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.04401517821062</v>
+        <v>27.24714882506326</v>
       </c>
       <c r="C11">
-        <v>11.25736434825678</v>
+        <v>16.96288477355754</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.3923190937536</v>
+        <v>8.266461562457247</v>
       </c>
       <c r="F11">
-        <v>39.70407521754321</v>
+        <v>31.04423850169927</v>
       </c>
       <c r="G11">
-        <v>40.33379365193656</v>
+        <v>37.67548491240086</v>
       </c>
       <c r="H11">
-        <v>16.84484772808415</v>
+        <v>11.19552365228883</v>
       </c>
       <c r="I11">
-        <v>26.18774877202049</v>
+        <v>16.62118210129745</v>
       </c>
       <c r="J11">
-        <v>8.31288804398349</v>
+        <v>5.287891533894699</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.46748866683185</v>
+        <v>8.36527774950205</v>
       </c>
       <c r="M11">
-        <v>17.61344873368512</v>
+        <v>16.02446831815669</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.1765619930124</v>
+        <v>27.60287576867873</v>
       </c>
       <c r="C12">
-        <v>11.34666308129232</v>
+        <v>17.15776204107504</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.38826296421196</v>
+        <v>8.263033414478327</v>
       </c>
       <c r="F12">
-        <v>39.70559935963966</v>
+        <v>31.25200502793812</v>
       </c>
       <c r="G12">
-        <v>40.35559964608673</v>
+        <v>38.02592736900795</v>
       </c>
       <c r="H12">
-        <v>16.83382610634395</v>
+        <v>11.22520644921146</v>
       </c>
       <c r="I12">
-        <v>26.16013069138521</v>
+        <v>16.62225974867722</v>
       </c>
       <c r="J12">
-        <v>8.31024624798075</v>
+        <v>5.277079326441123</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.47107646909113</v>
+        <v>8.412566347668024</v>
       </c>
       <c r="M12">
-        <v>17.64873424697341</v>
+        <v>16.19321396947528</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.14808016593451</v>
+        <v>27.52657574894949</v>
       </c>
       <c r="C13">
-        <v>11.32750099126505</v>
+        <v>17.11593237807278</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.38913158173051</v>
+        <v>8.263758350489535</v>
       </c>
       <c r="F13">
-        <v>39.70520070047947</v>
+        <v>31.20708948072165</v>
       </c>
       <c r="G13">
-        <v>40.35079658271358</v>
+        <v>37.9501954556535</v>
       </c>
       <c r="H13">
-        <v>16.83617356998105</v>
+        <v>11.21870358469771</v>
       </c>
       <c r="I13">
-        <v>26.1660347918598</v>
+        <v>16.62181194220823</v>
       </c>
       <c r="J13">
-        <v>8.310812514169351</v>
+        <v>5.279405470834146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.47029510727861</v>
+        <v>8.402380382316183</v>
       </c>
       <c r="M13">
-        <v>17.64112624714231</v>
+        <v>16.15696986624259</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.05494878622434</v>
+        <v>27.27655555767606</v>
       </c>
       <c r="C14">
-        <v>11.26474249519721</v>
+        <v>16.97898090112899</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.39198316575735</v>
+        <v>8.266173522973109</v>
       </c>
       <c r="F14">
-        <v>39.70416888316148</v>
+        <v>31.06125531724037</v>
       </c>
       <c r="G14">
-        <v>40.33553953452063</v>
+        <v>37.70419983817725</v>
       </c>
       <c r="H14">
-        <v>16.84392915222069</v>
+        <v>11.1979162446912</v>
       </c>
       <c r="I14">
-        <v>26.18545681993276</v>
+        <v>16.62117411726975</v>
       </c>
       <c r="J14">
-        <v>8.312669488335585</v>
+        <v>5.28700088612224</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.46777993028094</v>
+        <v>8.369167495757017</v>
       </c>
       <c r="M14">
-        <v>17.61634777120288</v>
+        <v>16.038395364332</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.99771618134863</v>
+        <v>27.12249458122368</v>
       </c>
       <c r="C15">
-        <v>11.22609678128909</v>
+        <v>16.89468140680722</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.39374432230241</v>
+        <v>8.26769177222952</v>
       </c>
       <c r="F15">
-        <v>39.70374301907112</v>
+        <v>30.97242306580824</v>
       </c>
       <c r="G15">
-        <v>40.32650679201018</v>
+        <v>37.55427535418153</v>
       </c>
       <c r="H15">
-        <v>16.84875645947508</v>
+        <v>11.18550352857518</v>
       </c>
       <c r="I15">
-        <v>26.1974819674489</v>
+        <v>16.62140848509334</v>
       </c>
       <c r="J15">
-        <v>8.313814826563716</v>
+        <v>5.29166065060471</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.46626471548086</v>
+        <v>8.34882845076203</v>
       </c>
       <c r="M15">
-        <v>17.60119589993723</v>
+        <v>15.96547786980759</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.66696063599345</v>
+        <v>26.22548397442998</v>
       </c>
       <c r="C16">
-        <v>11.00153028113372</v>
+        <v>16.40523022955688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.40405900997639</v>
+        <v>8.276976234197361</v>
       </c>
       <c r="F16">
-        <v>39.70446166994677</v>
+        <v>30.47094000304979</v>
       </c>
       <c r="G16">
-        <v>40.27953738763196</v>
+        <v>36.70669192349399</v>
       </c>
       <c r="H16">
-        <v>16.87759480532443</v>
+        <v>11.11917320510546</v>
       </c>
       <c r="I16">
-        <v>26.26836032110252</v>
+        <v>16.63204433928902</v>
       </c>
       <c r="J16">
-        <v>8.320499455726967</v>
+        <v>5.318483299302442</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.45797244456793</v>
+        <v>8.232363660791801</v>
       </c>
       <c r="M16">
-        <v>17.51477670205148</v>
+        <v>15.54324662106353</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.46167104029</v>
+        <v>25.66246088529727</v>
       </c>
       <c r="C17">
-        <v>10.86102891544264</v>
+        <v>16.0992508578002</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.41058533446471</v>
+        <v>8.283180563151099</v>
       </c>
       <c r="F17">
-        <v>39.70772037722293</v>
+        <v>30.17004613854538</v>
       </c>
       <c r="G17">
-        <v>40.25500128204214</v>
+        <v>36.19706551065674</v>
       </c>
       <c r="H17">
-        <v>16.89633250295796</v>
+        <v>11.08265270593698</v>
       </c>
       <c r="I17">
-        <v>26.31359293101393</v>
+        <v>16.64655217343723</v>
       </c>
       <c r="J17">
-        <v>8.324708653311855</v>
+        <v>5.33505178420257</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.45323567444467</v>
+        <v>8.161015382441365</v>
       </c>
       <c r="M17">
-        <v>17.46214535035846</v>
+        <v>15.28036125323665</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.3427587094744</v>
+        <v>25.33390159847585</v>
       </c>
       <c r="C18">
-        <v>10.77922385813842</v>
+        <v>15.92114560164461</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.41441221285535</v>
+        <v>8.286931321867629</v>
       </c>
       <c r="F18">
-        <v>39.71062966393249</v>
+        <v>29.99945621172468</v>
       </c>
       <c r="G18">
-        <v>40.24246075816544</v>
+        <v>35.90774918083337</v>
       </c>
       <c r="H18">
-        <v>16.90749357549893</v>
+        <v>11.06313478842557</v>
       </c>
       <c r="I18">
-        <v>26.34025135567385</v>
+        <v>16.65770951414575</v>
       </c>
       <c r="J18">
-        <v>8.327169619053043</v>
+        <v>5.344626038752972</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.45064053138</v>
+        <v>8.120021960361749</v>
       </c>
       <c r="M18">
-        <v>17.43202147169692</v>
+        <v>15.12775618152779</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.30235753091949</v>
+        <v>25.2218418611006</v>
       </c>
       <c r="C19">
-        <v>10.75135697410588</v>
+        <v>15.86047806740918</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.41572049659363</v>
+        <v>8.288232128789415</v>
       </c>
       <c r="F19">
-        <v>39.71179238562909</v>
+        <v>29.94212234713944</v>
       </c>
       <c r="G19">
-        <v>40.23848468206775</v>
+        <v>35.8104465591559</v>
       </c>
       <c r="H19">
-        <v>16.91133833083848</v>
+        <v>11.05677759244188</v>
       </c>
       <c r="I19">
-        <v>26.34938751569638</v>
+        <v>16.66195898587953</v>
       </c>
       <c r="J19">
-        <v>8.328009731336881</v>
+        <v>5.347875611554803</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.44978412738046</v>
+        <v>8.106150660131792</v>
       </c>
       <c r="M19">
-        <v>17.42184818668093</v>
+        <v>15.0758481803478</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.48361183421866</v>
+        <v>25.72288354688222</v>
       </c>
       <c r="C20">
-        <v>10.87608854980938</v>
+        <v>16.13204141143451</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.40988303240106</v>
+        <v>8.282501142664385</v>
       </c>
       <c r="F20">
-        <v>39.70726635173902</v>
+        <v>30.2018204349366</v>
       </c>
       <c r="G20">
-        <v>40.25745048470546</v>
+        <v>36.25092229660138</v>
       </c>
       <c r="H20">
-        <v>16.89429811748336</v>
+        <v>11.08638538597911</v>
       </c>
       <c r="I20">
-        <v>26.30871137835364</v>
+        <v>16.64471397357569</v>
       </c>
       <c r="J20">
-        <v>8.32425644524362</v>
+        <v>5.333283495385458</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.45372654070414</v>
+        <v>8.16860613360566</v>
       </c>
       <c r="M20">
-        <v>17.46773286157456</v>
+        <v>15.3084912338948</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.08234289261689</v>
+        <v>27.35018327175255</v>
       </c>
       <c r="C21">
-        <v>11.28321883288567</v>
+        <v>17.01929279098152</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.3911425696853</v>
+        <v>8.265455994738476</v>
       </c>
       <c r="F21">
-        <v>39.70442898951057</v>
+        <v>31.10398707019408</v>
       </c>
       <c r="G21">
-        <v>40.3399557509699</v>
+        <v>37.77629737756432</v>
       </c>
       <c r="H21">
-        <v>16.84163514223206</v>
+        <v>11.20395502460464</v>
       </c>
       <c r="I21">
-        <v>26.17972529112534</v>
+        <v>16.62123050819548</v>
       </c>
       <c r="J21">
-        <v>8.312122406786752</v>
+        <v>5.284768412496438</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.4685134081077</v>
+        <v>8.378921961762911</v>
       </c>
       <c r="M21">
-        <v>17.62362050271747</v>
+        <v>16.07328348690372</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.46538652464196</v>
+        <v>28.37258580679806</v>
       </c>
       <c r="C22">
-        <v>11.54019202786032</v>
+        <v>17.58065060833675</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.37954297489324</v>
+        <v>8.256043451433026</v>
       </c>
       <c r="F22">
-        <v>39.71180024502081</v>
+        <v>31.71576562357283</v>
       </c>
       <c r="G22">
-        <v>40.40787099474373</v>
+        <v>38.80702538615986</v>
       </c>
       <c r="H22">
-        <v>16.81065142278234</v>
+        <v>11.2950004944456</v>
       </c>
       <c r="I22">
-        <v>26.10117649583067</v>
+        <v>16.63353034587635</v>
       </c>
       <c r="J22">
-        <v>8.304545457508732</v>
+        <v>5.253397578293171</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.47931612276073</v>
+        <v>8.516611114976969</v>
       </c>
       <c r="M22">
-        <v>17.72666992150659</v>
+        <v>16.6068334058852</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.26174254047719</v>
+        <v>27.83062733014279</v>
       </c>
       <c r="C23">
-        <v>11.40388628223585</v>
+        <v>17.28271921160053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.3856746972595</v>
+        <v>8.260903548863132</v>
       </c>
       <c r="F23">
-        <v>39.70702170945421</v>
+        <v>31.38721300507374</v>
       </c>
       <c r="G23">
-        <v>40.37034397323099</v>
+        <v>38.2538112209602</v>
       </c>
       <c r="H23">
-        <v>16.82687288541585</v>
+        <v>11.24506139610886</v>
       </c>
       <c r="I23">
-        <v>26.14257150660696</v>
+        <v>16.62430765172703</v>
       </c>
       <c r="J23">
-        <v>8.308557200889057</v>
+        <v>5.27011301823164</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.4734469705811</v>
+        <v>8.443109279456507</v>
       </c>
       <c r="M23">
-        <v>17.67157108387501</v>
+        <v>16.30155947194286</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.4736951596199</v>
+        <v>25.69558164004416</v>
       </c>
       <c r="C24">
-        <v>10.8692832910158</v>
+        <v>16.11722363791348</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.41020031014179</v>
+        <v>8.282807737257739</v>
       </c>
       <c r="F24">
-        <v>39.70746839022598</v>
+        <v>30.18744780738455</v>
       </c>
       <c r="G24">
-        <v>40.25633832332399</v>
+        <v>36.22656219592316</v>
       </c>
       <c r="H24">
-        <v>16.89521665307317</v>
+        <v>11.08469324769378</v>
       </c>
       <c r="I24">
-        <v>26.3109162926942</v>
+        <v>16.64553627919577</v>
       </c>
       <c r="J24">
-        <v>8.324460760619761</v>
+        <v>5.33408278607902</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.45350422094981</v>
+        <v>8.165174273257108</v>
       </c>
       <c r="M24">
-        <v>17.46520632681904</v>
+        <v>15.29577824024582</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.59232895002962</v>
+        <v>23.21152092827275</v>
       </c>
       <c r="C25">
-        <v>10.25490576988951</v>
+        <v>14.77918141844327</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.43945192261792</v>
+        <v>8.31335529536768</v>
       </c>
       <c r="F25">
-        <v>39.74750079330915</v>
+        <v>28.98794684457534</v>
       </c>
       <c r="G25">
-        <v>40.19342934519574</v>
+        <v>34.18565455727951</v>
       </c>
       <c r="H25">
-        <v>16.98359233530668</v>
+        <v>10.96801724892766</v>
       </c>
       <c r="I25">
-        <v>26.51702106738538</v>
+        <v>16.77456308912846</v>
       </c>
       <c r="J25">
-        <v>8.34314404886628</v>
+        <v>5.404815409787787</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.4369435396042</v>
+        <v>7.867187612431318</v>
       </c>
       <c r="M25">
-        <v>17.24836412977502</v>
+        <v>14.15774639652146</v>
       </c>
       <c r="N25">
         <v>0</v>
